--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value206.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value206.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9556096411673358</v>
+        <v>1.502717018127441</v>
       </c>
       <c r="B1">
-        <v>1.485012442004343</v>
+        <v>3.65783429145813</v>
       </c>
       <c r="C1">
-        <v>2.092597892442905</v>
+        <v>5.986981391906738</v>
       </c>
       <c r="D1">
-        <v>2.314175490138719</v>
+        <v>1.45356810092926</v>
       </c>
       <c r="E1">
-        <v>1.755605792987289</v>
+        <v>0.8501076698303223</v>
       </c>
     </row>
   </sheetData>
